--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf1-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf1-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Fgfr4</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H2">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I2">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J2">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3341516666666666</v>
+        <v>0.363908</v>
       </c>
       <c r="N2">
-        <v>1.002455</v>
+        <v>1.091724</v>
       </c>
       <c r="O2">
-        <v>0.02354483703663662</v>
+        <v>0.01118972054940699</v>
       </c>
       <c r="P2">
-        <v>0.03467746452042096</v>
+        <v>0.01663265480083782</v>
       </c>
       <c r="Q2">
-        <v>0.4625145814261111</v>
+        <v>0.3193524388093333</v>
       </c>
       <c r="R2">
-        <v>4.162631232834999</v>
+        <v>2.874171949284</v>
       </c>
       <c r="S2">
-        <v>0.002388899625652508</v>
+        <v>0.002111988706380624</v>
       </c>
       <c r="T2">
-        <v>0.004626186685803654</v>
+        <v>0.003465770994171524</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H3">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I3">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J3">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,25 +623,25 @@
         <v>0.153566</v>
       </c>
       <c r="N3">
-        <v>0.4606979999999999</v>
+        <v>0.460698</v>
       </c>
       <c r="O3">
-        <v>0.01082049501783563</v>
+        <v>0.004721964413781051</v>
       </c>
       <c r="P3">
-        <v>0.01593671391696275</v>
+        <v>0.007018835164781924</v>
       </c>
       <c r="Q3">
-        <v>0.2125577134473333</v>
+        <v>0.1347639420353333</v>
       </c>
       <c r="R3">
-        <v>1.913019421026</v>
+        <v>1.212875478318</v>
       </c>
       <c r="S3">
-        <v>0.001097866018663041</v>
+        <v>0.0008912408017522201</v>
       </c>
       <c r="T3">
-        <v>0.002126055487554426</v>
+        <v>0.001462525112091365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H4">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I4">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J4">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>13.6684585</v>
+        <v>0.06252866666666666</v>
       </c>
       <c r="N4">
-        <v>27.336917</v>
+        <v>0.187586</v>
       </c>
       <c r="O4">
-        <v>0.9631004721145509</v>
+        <v>0.001922679101110775</v>
       </c>
       <c r="P4">
-        <v>0.9456533902920258</v>
+        <v>0.002857913889838424</v>
       </c>
       <c r="Q4">
-        <v>18.91913760278817</v>
+        <v>0.05487288599177777</v>
       </c>
       <c r="R4">
-        <v>113.514825616729</v>
+        <v>0.493855973926</v>
       </c>
       <c r="S4">
-        <v>0.0977178289117123</v>
+        <v>0.0003628934725948277</v>
       </c>
       <c r="T4">
-        <v>0.1261559685535207</v>
+        <v>0.0005955077636038592</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H5">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I5">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J5">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03596566666666667</v>
+        <v>31.927516</v>
       </c>
       <c r="N5">
-        <v>0.107897</v>
+        <v>63.85503199999999</v>
       </c>
       <c r="O5">
-        <v>0.002534195830976933</v>
+        <v>0.9817315966582778</v>
       </c>
       <c r="P5">
-        <v>0.003732431270590561</v>
+        <v>0.9728454303033116</v>
       </c>
       <c r="Q5">
-        <v>0.04978172166544444</v>
+        <v>28.01842800851866</v>
       </c>
       <c r="R5">
-        <v>0.448035494989</v>
+        <v>168.110568051112</v>
       </c>
       <c r="S5">
-        <v>0.0002571238638233424</v>
+        <v>0.1852956055233374</v>
       </c>
       <c r="T5">
-        <v>0.0004979292485330084</v>
+        <v>0.2027132477965992</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.458038666666666</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H6">
-        <v>7.374115999999999</v>
+        <v>2.632691</v>
       </c>
       <c r="I6">
-        <v>0.1801810554109115</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J6">
-        <v>0.2369096391566985</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.3341516666666666</v>
+        <v>0.01411566666666667</v>
       </c>
       <c r="N6">
-        <v>1.002455</v>
+        <v>0.042347</v>
       </c>
       <c r="O6">
-        <v>0.02354483703663662</v>
+        <v>0.0004340392774233579</v>
       </c>
       <c r="P6">
-        <v>0.03467746452042096</v>
+        <v>0.0006451658412300904</v>
       </c>
       <c r="Q6">
-        <v>0.8213577171977776</v>
+        <v>0.01238739619744444</v>
       </c>
       <c r="R6">
-        <v>7.392219454779998</v>
+        <v>0.111486565777</v>
       </c>
       <c r="S6">
-        <v>0.004242333586739105</v>
+        <v>8.192215775150155E-05</v>
       </c>
       <c r="T6">
-        <v>0.008215425606402144</v>
+        <v>0.000134434164944786</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H7">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I7">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J7">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.153566</v>
+        <v>0.363908</v>
       </c>
       <c r="N7">
-        <v>0.4606979999999999</v>
+        <v>1.091724</v>
       </c>
       <c r="O7">
-        <v>0.01082049501783563</v>
+        <v>0.01118972054940699</v>
       </c>
       <c r="P7">
-        <v>0.01593671391696275</v>
+        <v>0.01663265480083782</v>
       </c>
       <c r="Q7">
-        <v>0.3774711658853332</v>
+        <v>0.8944999351093333</v>
       </c>
       <c r="R7">
-        <v>3.397240492967999</v>
+        <v>8.050499415984</v>
       </c>
       <c r="S7">
-        <v>0.001949648212382134</v>
+        <v>0.005915639059631633</v>
       </c>
       <c r="T7">
-        <v>0.00377556114341118</v>
+        <v>0.009707556770033455</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +903,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H8">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I8">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J8">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>13.6684585</v>
+        <v>0.153566</v>
       </c>
       <c r="N8">
-        <v>27.336917</v>
+        <v>0.460698</v>
       </c>
       <c r="O8">
-        <v>0.9631004721145509</v>
+        <v>0.004721964413781051</v>
       </c>
       <c r="P8">
-        <v>0.9456533902920258</v>
+        <v>0.007018835164781924</v>
       </c>
       <c r="Q8">
-        <v>33.59759950672866</v>
+        <v>0.3774711658853334</v>
       </c>
       <c r="R8">
-        <v>201.585597040372</v>
+        <v>3.397240492968</v>
       </c>
       <c r="S8">
-        <v>0.1735324595323469</v>
+        <v>0.002496348054539586</v>
       </c>
       <c r="T8">
-        <v>0.2240344034613924</v>
+        <v>0.004096504234441006</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H9">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I9">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J9">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,33 +992,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03596566666666667</v>
+        <v>0.06252866666666666</v>
       </c>
       <c r="N9">
-        <v>0.107897</v>
+        <v>0.187586</v>
       </c>
       <c r="O9">
-        <v>0.002534195830976933</v>
+        <v>0.001922679101110775</v>
       </c>
       <c r="P9">
-        <v>0.003732431270590561</v>
+        <v>0.002857913889838424</v>
       </c>
       <c r="Q9">
-        <v>0.0884049993391111</v>
+        <v>0.1536978804417778</v>
       </c>
       <c r="R9">
-        <v>0.795644994052</v>
+        <v>1.383280923976</v>
       </c>
       <c r="S9">
-        <v>0.0004566140794433559</v>
+        <v>0.001016457519153247</v>
       </c>
       <c r="T9">
-        <v>0.0008842489454927874</v>
+        <v>0.001668005598725956</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1024,60 +1027,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.799863999999999</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H10">
-        <v>19.599728</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I10">
-        <v>0.7183572261692374</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J10">
-        <v>0.6296842208678898</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3341516666666666</v>
+        <v>31.927516</v>
       </c>
       <c r="N10">
-        <v>1.002455</v>
+        <v>63.85503199999999</v>
       </c>
       <c r="O10">
-        <v>0.02354483703663662</v>
+        <v>0.9817315966582778</v>
       </c>
       <c r="P10">
-        <v>0.03467746452042096</v>
+        <v>0.9728454303033116</v>
       </c>
       <c r="Q10">
-        <v>3.274640888706666</v>
+        <v>78.47906885861867</v>
       </c>
       <c r="R10">
-        <v>19.64784533224</v>
+        <v>470.874413151712</v>
       </c>
       <c r="S10">
-        <v>0.01691360382424501</v>
+        <v>0.5190093670010385</v>
       </c>
       <c r="T10">
-        <v>0.02183585222821516</v>
+        <v>0.5677958423487097</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1086,25 +1089,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.799863999999999</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H11">
-        <v>19.599728</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I11">
-        <v>0.7183572261692374</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J11">
-        <v>0.6296842208678898</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1113,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.153566</v>
+        <v>0.01411566666666667</v>
       </c>
       <c r="N11">
-        <v>0.4606979999999999</v>
+        <v>0.042347</v>
       </c>
       <c r="O11">
-        <v>0.01082049501783563</v>
+        <v>0.0004340392774233579</v>
       </c>
       <c r="P11">
-        <v>0.01593671391696275</v>
+        <v>0.0006451658412300904</v>
       </c>
       <c r="Q11">
-        <v>1.504925915024</v>
+        <v>0.03469685447244445</v>
       </c>
       <c r="R11">
-        <v>9.029555490143998</v>
+        <v>0.3122716902520001</v>
       </c>
       <c r="S11">
-        <v>0.007772980786790457</v>
+        <v>0.0002294623616025853</v>
       </c>
       <c r="T11">
-        <v>0.01003509728599715</v>
+        <v>0.0003765474667045945</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1151,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1157,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H12">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I12">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J12">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.6684585</v>
+        <v>0.363908</v>
       </c>
       <c r="N12">
-        <v>27.336917</v>
+        <v>1.091724</v>
       </c>
       <c r="O12">
-        <v>0.9631004721145509</v>
+        <v>0.01118972054940699</v>
       </c>
       <c r="P12">
-        <v>0.9456533902920258</v>
+        <v>0.01663265480083782</v>
       </c>
       <c r="Q12">
-        <v>133.949034389644</v>
+        <v>0.4781379933839999</v>
       </c>
       <c r="R12">
-        <v>535.796137558576</v>
+        <v>2.868827960304</v>
       </c>
       <c r="S12">
-        <v>0.6918501836704917</v>
+        <v>0.003162092783394735</v>
       </c>
       <c r="T12">
-        <v>0.5954630182771127</v>
+        <v>0.003459327036632842</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1213,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1219,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H13">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I13">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J13">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1240,214 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.03596566666666667</v>
+        <v>0.153566</v>
       </c>
       <c r="N13">
-        <v>0.107897</v>
+        <v>0.460698</v>
       </c>
       <c r="O13">
-        <v>0.002534195830976933</v>
+        <v>0.004721964413781051</v>
       </c>
       <c r="P13">
-        <v>0.003732431270590561</v>
+        <v>0.007018835164781924</v>
       </c>
       <c r="Q13">
-        <v>0.3524586420026666</v>
+        <v>0.201770060268</v>
       </c>
       <c r="R13">
-        <v>2.114751852016</v>
+        <v>1.210620361608</v>
       </c>
       <c r="S13">
-        <v>0.001820457887710235</v>
+        <v>0.001334375557489244</v>
       </c>
       <c r="T13">
-        <v>0.002350253076564765</v>
+        <v>0.001459805818249555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.313898</v>
+      </c>
+      <c r="H14">
+        <v>2.627796</v>
+      </c>
+      <c r="I14">
+        <v>0.2825890753422177</v>
+      </c>
+      <c r="J14">
+        <v>0.2079840577499744</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.06252866666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.187586</v>
+      </c>
+      <c r="O14">
+        <v>0.001922679101110775</v>
+      </c>
+      <c r="P14">
+        <v>0.002857913889838424</v>
+      </c>
+      <c r="Q14">
+        <v>0.08215629007599999</v>
+      </c>
+      <c r="R14">
+        <v>0.492937740456</v>
+      </c>
+      <c r="S14">
+        <v>0.0005433281093627004</v>
+      </c>
+      <c r="T14">
+        <v>0.0005944005275086088</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.313898</v>
+      </c>
+      <c r="H15">
+        <v>2.627796</v>
+      </c>
+      <c r="I15">
+        <v>0.2825890753422177</v>
+      </c>
+      <c r="J15">
+        <v>0.2079840577499744</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>31.927516</v>
+      </c>
+      <c r="N15">
+        <v>63.85503199999999</v>
+      </c>
+      <c r="O15">
+        <v>0.9817315966582778</v>
+      </c>
+      <c r="P15">
+        <v>0.9728454303033116</v>
+      </c>
+      <c r="Q15">
+        <v>41.949499417368</v>
+      </c>
+      <c r="R15">
+        <v>167.797997669472</v>
+      </c>
+      <c r="S15">
+        <v>0.2774266241339018</v>
+      </c>
+      <c r="T15">
+        <v>0.2023363401580027</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.313898</v>
+      </c>
+      <c r="H16">
+        <v>2.627796</v>
+      </c>
+      <c r="I16">
+        <v>0.2825890753422177</v>
+      </c>
+      <c r="J16">
+        <v>0.2079840577499744</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01411566666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.042347</v>
+      </c>
+      <c r="O16">
+        <v>0.0004340392774233579</v>
+      </c>
+      <c r="P16">
+        <v>0.0006451658412300904</v>
+      </c>
+      <c r="Q16">
+        <v>0.018546546202</v>
+      </c>
+      <c r="R16">
+        <v>0.111279277212</v>
+      </c>
+      <c r="S16">
+        <v>0.000122654758069271</v>
+      </c>
+      <c r="T16">
+        <v>0.0001341842095807099</v>
       </c>
     </row>
   </sheetData>
